--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value600.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value600.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9510974583350481</v>
+        <v>1.075311303138733</v>
       </c>
       <c r="B1">
-        <v>1.004339796339922</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>0.9679469352316589</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.03275872110472</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.23756444129911</v>
+        <v>1.153502464294434</v>
       </c>
     </row>
   </sheetData>
